--- a/Financials/Quarterly/YZCAY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/YZCAY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A44CCB7-E12E-4F98-9E22-65C6D45903CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YZCAY" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,39 +689,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -715,94 +750,94 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4685800</v>
+        <v>4781800</v>
       </c>
       <c r="E8" s="3">
-        <v>4326500</v>
+        <v>4415100</v>
       </c>
       <c r="F8" s="3">
-        <v>3333600</v>
+        <v>3401900</v>
       </c>
       <c r="G8" s="3">
-        <v>3009200</v>
+        <v>3070900</v>
       </c>
       <c r="H8" s="3">
-        <v>1829600</v>
+        <v>1867100</v>
       </c>
       <c r="I8" s="3">
-        <v>2655600</v>
+        <v>2710000</v>
       </c>
       <c r="J8" s="3">
-        <v>2638700</v>
+        <v>2692800</v>
       </c>
       <c r="K8" s="3">
         <v>4281100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2889500</v>
+        <v>2948700</v>
       </c>
       <c r="E9" s="3">
-        <v>2752300</v>
+        <v>2808700</v>
       </c>
       <c r="F9" s="3">
-        <v>2156900</v>
+        <v>2201100</v>
       </c>
       <c r="G9" s="3">
-        <v>2059200</v>
+        <v>2101400</v>
       </c>
       <c r="H9" s="3">
-        <v>1403200</v>
+        <v>1432000</v>
       </c>
       <c r="I9" s="3">
-        <v>2229200</v>
+        <v>2274900</v>
       </c>
       <c r="J9" s="3">
-        <v>2170100</v>
+        <v>2214500</v>
       </c>
       <c r="K9" s="3">
         <v>3823800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1796300</v>
+        <v>1833100</v>
       </c>
       <c r="E10" s="3">
-        <v>1574100</v>
+        <v>1606400</v>
       </c>
       <c r="F10" s="3">
-        <v>1176700</v>
+        <v>1200800</v>
       </c>
       <c r="G10" s="3">
-        <v>950000</v>
+        <v>969400</v>
       </c>
       <c r="H10" s="3">
-        <v>426400</v>
+        <v>435100</v>
       </c>
       <c r="I10" s="3">
-        <v>426300</v>
+        <v>435100</v>
       </c>
       <c r="J10" s="3">
-        <v>468600</v>
+        <v>478200</v>
       </c>
       <c r="K10" s="3">
         <v>457300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -815,7 +850,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -844,7 +879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,7 +937,7 @@
         <v>-106400</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,13 +960,13 @@
         <v>2100</v>
       </c>
       <c r="J15" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -941,65 +976,65 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3659200</v>
+        <v>3734200</v>
       </c>
       <c r="E17" s="3">
-        <v>3628800</v>
+        <v>3703100</v>
       </c>
       <c r="F17" s="3">
-        <v>2627000</v>
+        <v>2680900</v>
       </c>
       <c r="G17" s="3">
-        <v>2743500</v>
+        <v>2799700</v>
       </c>
       <c r="H17" s="3">
-        <v>1851700</v>
+        <v>1889600</v>
       </c>
       <c r="I17" s="3">
-        <v>2644000</v>
+        <v>2698200</v>
       </c>
       <c r="J17" s="3">
-        <v>2583800</v>
+        <v>2636700</v>
       </c>
       <c r="K17" s="3">
         <v>4081100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1026600</v>
+        <v>1047600</v>
       </c>
       <c r="E18" s="3">
-        <v>697700</v>
+        <v>712000</v>
       </c>
       <c r="F18" s="3">
-        <v>706600</v>
+        <v>721100</v>
       </c>
       <c r="G18" s="3">
-        <v>265700</v>
+        <v>271200</v>
       </c>
       <c r="H18" s="3">
-        <v>-22100</v>
+        <v>-22500</v>
       </c>
       <c r="I18" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="J18" s="3">
-        <v>54900</v>
+        <v>56000</v>
       </c>
       <c r="K18" s="3">
         <v>199900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1012,152 +1047,152 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>465100</v>
+        <v>474700</v>
       </c>
       <c r="E20" s="3">
-        <v>489100</v>
+        <v>499200</v>
       </c>
       <c r="F20" s="3">
-        <v>220200</v>
+        <v>224700</v>
       </c>
       <c r="G20" s="3">
-        <v>262800</v>
+        <v>268200</v>
       </c>
       <c r="H20" s="3">
-        <v>249200</v>
+        <v>254400</v>
       </c>
       <c r="I20" s="3">
-        <v>186200</v>
+        <v>190100</v>
       </c>
       <c r="J20" s="3">
-        <v>199100</v>
+        <v>203200</v>
       </c>
       <c r="K20" s="3">
         <v>138300</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1957100</v>
+        <v>1997200</v>
       </c>
       <c r="E21" s="3">
-        <v>1200000</v>
+        <v>1224500</v>
       </c>
       <c r="F21" s="3">
-        <v>1258500</v>
+        <v>1284300</v>
       </c>
       <c r="G21" s="3">
-        <v>550500</v>
+        <v>561800</v>
       </c>
       <c r="H21" s="3">
-        <v>519200</v>
+        <v>529800</v>
       </c>
       <c r="I21" s="3">
-        <v>228300</v>
+        <v>232900</v>
       </c>
       <c r="J21" s="3">
-        <v>563200</v>
+        <v>574800</v>
       </c>
       <c r="K21" s="3">
         <v>314000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>264000</v>
+        <v>269400</v>
       </c>
       <c r="E22" s="3">
-        <v>281000</v>
+        <v>286800</v>
       </c>
       <c r="F22" s="3">
-        <v>192400</v>
+        <v>196300</v>
       </c>
       <c r="G22" s="3">
-        <v>199000</v>
+        <v>203100</v>
       </c>
       <c r="H22" s="3">
-        <v>164700</v>
+        <v>168100</v>
       </c>
       <c r="I22" s="3">
-        <v>142800</v>
+        <v>145700</v>
       </c>
       <c r="J22" s="3">
-        <v>218500</v>
+        <v>223000</v>
       </c>
       <c r="K22" s="3">
         <v>154600</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1227700</v>
+        <v>1252800</v>
       </c>
       <c r="E23" s="3">
-        <v>905800</v>
+        <v>924400</v>
       </c>
       <c r="F23" s="3">
-        <v>734400</v>
+        <v>749400</v>
       </c>
       <c r="G23" s="3">
-        <v>329500</v>
+        <v>336300</v>
       </c>
       <c r="H23" s="3">
-        <v>62400</v>
+        <v>63700</v>
       </c>
       <c r="I23" s="3">
-        <v>55000</v>
+        <v>56100</v>
       </c>
       <c r="J23" s="3">
-        <v>35500</v>
+        <v>36200</v>
       </c>
       <c r="K23" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>362700</v>
+        <v>370100</v>
       </c>
       <c r="E24" s="3">
-        <v>230300</v>
+        <v>235100</v>
       </c>
       <c r="F24" s="3">
-        <v>164400</v>
+        <v>167800</v>
       </c>
       <c r="G24" s="3">
-        <v>108300</v>
+        <v>110500</v>
       </c>
       <c r="H24" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="I24" s="3">
-        <v>35900</v>
+        <v>36700</v>
       </c>
       <c r="J24" s="3">
-        <v>35300</v>
+        <v>36000</v>
       </c>
       <c r="K24" s="3">
         <v>166700</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1186,27 +1221,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>865000</v>
+        <v>882700</v>
       </c>
       <c r="E26" s="3">
-        <v>675500</v>
+        <v>689300</v>
       </c>
       <c r="F26" s="3">
-        <v>569900</v>
+        <v>581600</v>
       </c>
       <c r="G26" s="3">
-        <v>221300</v>
+        <v>225800</v>
       </c>
       <c r="H26" s="3">
-        <v>51900</v>
+        <v>52900</v>
       </c>
       <c r="I26" s="3">
-        <v>19100</v>
+        <v>19500</v>
       </c>
       <c r="J26" s="3">
         <v>200</v>
@@ -1215,36 +1250,36 @@
         <v>16900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>672300</v>
+        <v>686100</v>
       </c>
       <c r="E27" s="3">
-        <v>568800</v>
+        <v>580500</v>
       </c>
       <c r="F27" s="3">
-        <v>501900</v>
+        <v>512200</v>
       </c>
       <c r="G27" s="3">
-        <v>185300</v>
+        <v>189100</v>
       </c>
       <c r="H27" s="3">
-        <v>54600</v>
+        <v>55700</v>
       </c>
       <c r="I27" s="3">
-        <v>31300</v>
+        <v>31900</v>
       </c>
       <c r="J27" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="K27" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1273,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1302,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1331,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1360,65 +1395,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-465100</v>
+        <v>-474700</v>
       </c>
       <c r="E32" s="3">
-        <v>-489100</v>
+        <v>-499200</v>
       </c>
       <c r="F32" s="3">
-        <v>-220200</v>
+        <v>-224700</v>
       </c>
       <c r="G32" s="3">
-        <v>-262800</v>
+        <v>-268200</v>
       </c>
       <c r="H32" s="3">
-        <v>-249200</v>
+        <v>-254400</v>
       </c>
       <c r="I32" s="3">
-        <v>-186200</v>
+        <v>-190100</v>
       </c>
       <c r="J32" s="3">
-        <v>-199100</v>
+        <v>-203200</v>
       </c>
       <c r="K32" s="3">
         <v>-138300</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>672300</v>
+        <v>686100</v>
       </c>
       <c r="E33" s="3">
-        <v>568800</v>
+        <v>580500</v>
       </c>
       <c r="F33" s="3">
-        <v>501900</v>
+        <v>512200</v>
       </c>
       <c r="G33" s="3">
-        <v>185300</v>
+        <v>189100</v>
       </c>
       <c r="H33" s="3">
-        <v>54600</v>
+        <v>55700</v>
       </c>
       <c r="I33" s="3">
-        <v>31300</v>
+        <v>31900</v>
       </c>
       <c r="J33" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="K33" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1447,41 +1482,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>672300</v>
+        <v>686100</v>
       </c>
       <c r="E35" s="3">
-        <v>568800</v>
+        <v>580500</v>
       </c>
       <c r="F35" s="3">
-        <v>501900</v>
+        <v>512200</v>
       </c>
       <c r="G35" s="3">
-        <v>185300</v>
+        <v>189100</v>
       </c>
       <c r="H35" s="3">
-        <v>54600</v>
+        <v>55700</v>
       </c>
       <c r="I35" s="3">
-        <v>31300</v>
+        <v>31900</v>
       </c>
       <c r="J35" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="K35" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1510,7 +1545,7 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1523,7 +1558,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1536,36 +1571,36 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3453600</v>
+        <v>3524300</v>
       </c>
       <c r="E41" s="3">
-        <v>3064700</v>
+        <v>3127500</v>
       </c>
       <c r="F41" s="3">
-        <v>2437400</v>
+        <v>2487300</v>
       </c>
       <c r="G41" s="3">
-        <v>2388400</v>
+        <v>2437300</v>
       </c>
       <c r="H41" s="3">
-        <v>2162000</v>
+        <v>2206300</v>
       </c>
       <c r="I41" s="3">
-        <v>2934100</v>
+        <v>2994200</v>
       </c>
       <c r="J41" s="3">
-        <v>2195500</v>
+        <v>2240500</v>
       </c>
       <c r="K41" s="3">
         <v>2187500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1573,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="F42" s="3">
-        <v>19800</v>
+        <v>20200</v>
       </c>
       <c r="G42" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -1594,210 +1629,210 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2912400</v>
+        <v>2972000</v>
       </c>
       <c r="E43" s="3">
-        <v>3060100</v>
+        <v>3122800</v>
       </c>
       <c r="F43" s="3">
-        <v>1887000</v>
+        <v>1925700</v>
       </c>
       <c r="G43" s="3">
-        <v>1726100</v>
+        <v>1761500</v>
       </c>
       <c r="H43" s="3">
-        <v>1326000</v>
+        <v>1353100</v>
       </c>
       <c r="I43" s="3">
-        <v>1155900</v>
+        <v>1179600</v>
       </c>
       <c r="J43" s="3">
-        <v>1220100</v>
+        <v>1245100</v>
       </c>
       <c r="K43" s="3">
         <v>1294600</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1257300</v>
+        <v>1283000</v>
       </c>
       <c r="E44" s="3">
-        <v>873700</v>
+        <v>891600</v>
       </c>
       <c r="F44" s="3">
-        <v>878000</v>
+        <v>896000</v>
       </c>
       <c r="G44" s="3">
-        <v>735700</v>
+        <v>750800</v>
       </c>
       <c r="H44" s="3">
-        <v>900900</v>
+        <v>919400</v>
       </c>
       <c r="I44" s="3">
-        <v>663100</v>
+        <v>676700</v>
       </c>
       <c r="J44" s="3">
-        <v>722400</v>
+        <v>737200</v>
       </c>
       <c r="K44" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1622100</v>
+        <v>1655300</v>
       </c>
       <c r="E45" s="3">
-        <v>2480600</v>
+        <v>2531400</v>
       </c>
       <c r="F45" s="3">
-        <v>2072900</v>
+        <v>2115400</v>
       </c>
       <c r="G45" s="3">
-        <v>1167800</v>
+        <v>1191800</v>
       </c>
       <c r="H45" s="3">
-        <v>991600</v>
+        <v>1011900</v>
       </c>
       <c r="I45" s="3">
-        <v>2345500</v>
+        <v>2393600</v>
       </c>
       <c r="J45" s="3">
-        <v>1721200</v>
+        <v>1756400</v>
       </c>
       <c r="K45" s="3">
         <v>1550700</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9245200</v>
+        <v>9434700</v>
       </c>
       <c r="E46" s="3">
-        <v>9489100</v>
+        <v>9683500</v>
       </c>
       <c r="F46" s="3">
-        <v>7295100</v>
+        <v>7444600</v>
       </c>
       <c r="G46" s="3">
-        <v>6037000</v>
+        <v>6160700</v>
       </c>
       <c r="H46" s="3">
-        <v>5380500</v>
+        <v>5490800</v>
       </c>
       <c r="I46" s="3">
-        <v>7098600</v>
+        <v>7244100</v>
       </c>
       <c r="J46" s="3">
-        <v>5859200</v>
+        <v>5979300</v>
       </c>
       <c r="K46" s="3">
         <v>5538900</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3126900</v>
+        <v>3191000</v>
       </c>
       <c r="E47" s="3">
-        <v>2769200</v>
+        <v>2826000</v>
       </c>
       <c r="F47" s="3">
-        <v>2069300</v>
+        <v>2111700</v>
       </c>
       <c r="G47" s="3">
-        <v>1966200</v>
+        <v>2006500</v>
       </c>
       <c r="H47" s="3">
-        <v>2218700</v>
+        <v>2264200</v>
       </c>
       <c r="I47" s="3">
-        <v>800900</v>
+        <v>817300</v>
       </c>
       <c r="J47" s="3">
-        <v>900300</v>
+        <v>918700</v>
       </c>
       <c r="K47" s="3">
         <v>699000</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7592200</v>
+        <v>7747800</v>
       </c>
       <c r="E48" s="3">
-        <v>7517200</v>
+        <v>7671300</v>
       </c>
       <c r="F48" s="3">
-        <v>6293200</v>
+        <v>6422200</v>
       </c>
       <c r="G48" s="3">
-        <v>6101200</v>
+        <v>6226200</v>
       </c>
       <c r="H48" s="3">
-        <v>6846100</v>
+        <v>6986400</v>
       </c>
       <c r="I48" s="3">
-        <v>6633900</v>
+        <v>6769900</v>
       </c>
       <c r="J48" s="3">
-        <v>6410500</v>
+        <v>6541800</v>
       </c>
       <c r="K48" s="3">
         <v>6424300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7364600</v>
+        <v>7515500</v>
       </c>
       <c r="E49" s="3">
-        <v>7545800</v>
+        <v>7700400</v>
       </c>
       <c r="F49" s="3">
-        <v>6184300</v>
+        <v>6311100</v>
       </c>
       <c r="G49" s="3">
-        <v>6144900</v>
+        <v>6270800</v>
       </c>
       <c r="H49" s="3">
-        <v>5091200</v>
+        <v>5195600</v>
       </c>
       <c r="I49" s="3">
-        <v>5023100</v>
+        <v>5126000</v>
       </c>
       <c r="J49" s="3">
-        <v>5523800</v>
+        <v>5637000</v>
       </c>
       <c r="K49" s="3">
         <v>5747400</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1826,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1855,36 +1890,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1216100</v>
+        <v>1241000</v>
       </c>
       <c r="E52" s="3">
-        <v>1373800</v>
+        <v>1401900</v>
       </c>
       <c r="F52" s="3">
-        <v>1398500</v>
+        <v>1427100</v>
       </c>
       <c r="G52" s="3">
-        <v>1195100</v>
+        <v>1219500</v>
       </c>
       <c r="H52" s="3">
-        <v>1172100</v>
+        <v>1196100</v>
       </c>
       <c r="I52" s="3">
-        <v>1163200</v>
+        <v>1187000</v>
       </c>
       <c r="J52" s="3">
-        <v>851100</v>
+        <v>868600</v>
       </c>
       <c r="K52" s="3">
         <v>946800</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1913,36 +1948,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28545100</v>
+        <v>29130000</v>
       </c>
       <c r="E54" s="3">
-        <v>28695200</v>
+        <v>29283200</v>
       </c>
       <c r="F54" s="3">
-        <v>23240400</v>
+        <v>23716700</v>
       </c>
       <c r="G54" s="3">
-        <v>21444400</v>
+        <v>21883900</v>
       </c>
       <c r="H54" s="3">
-        <v>20708700</v>
+        <v>21133000</v>
       </c>
       <c r="I54" s="3">
-        <v>20719700</v>
+        <v>21144300</v>
       </c>
       <c r="J54" s="3">
-        <v>19544900</v>
+        <v>19945400</v>
       </c>
       <c r="K54" s="3">
         <v>19356500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1955,7 +1990,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1968,181 +2003,181 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4456800</v>
+        <v>4548100</v>
       </c>
       <c r="E57" s="3">
-        <v>4549500</v>
+        <v>4642700</v>
       </c>
       <c r="F57" s="3">
-        <v>2765600</v>
+        <v>2822300</v>
       </c>
       <c r="G57" s="3">
-        <v>2433500</v>
+        <v>2483300</v>
       </c>
       <c r="H57" s="3">
-        <v>1862700</v>
+        <v>1900800</v>
       </c>
       <c r="I57" s="3">
-        <v>1949800</v>
+        <v>1989700</v>
       </c>
       <c r="J57" s="3">
-        <v>1630300</v>
+        <v>1663700</v>
       </c>
       <c r="K57" s="3">
         <v>614800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3883000</v>
+        <v>3962500</v>
       </c>
       <c r="E58" s="3">
-        <v>4035900</v>
+        <v>4118600</v>
       </c>
       <c r="F58" s="3">
-        <v>4672200</v>
+        <v>4768000</v>
       </c>
       <c r="G58" s="3">
-        <v>4470800</v>
+        <v>4562400</v>
       </c>
       <c r="H58" s="3">
-        <v>4252100</v>
+        <v>4339200</v>
       </c>
       <c r="I58" s="3">
-        <v>3476200</v>
+        <v>3547500</v>
       </c>
       <c r="J58" s="3">
-        <v>2437300</v>
+        <v>2487300</v>
       </c>
       <c r="K58" s="3">
         <v>1581100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>822900</v>
+        <v>839700</v>
       </c>
       <c r="E59" s="3">
-        <v>682200</v>
+        <v>696200</v>
       </c>
       <c r="F59" s="3">
-        <v>457400</v>
+        <v>466800</v>
       </c>
       <c r="G59" s="3">
-        <v>568500</v>
+        <v>580100</v>
       </c>
       <c r="H59" s="3">
-        <v>494600</v>
+        <v>504800</v>
       </c>
       <c r="I59" s="3">
-        <v>690200</v>
+        <v>704400</v>
       </c>
       <c r="J59" s="3">
-        <v>481900</v>
+        <v>491800</v>
       </c>
       <c r="K59" s="3">
         <v>1778700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9162600</v>
+        <v>9350400</v>
       </c>
       <c r="E60" s="3">
-        <v>9267600</v>
+        <v>9457500</v>
       </c>
       <c r="F60" s="3">
-        <v>7895300</v>
+        <v>8057100</v>
       </c>
       <c r="G60" s="3">
-        <v>7472800</v>
+        <v>7625900</v>
       </c>
       <c r="H60" s="3">
-        <v>6609300</v>
+        <v>6744800</v>
       </c>
       <c r="I60" s="3">
-        <v>6116200</v>
+        <v>6241600</v>
       </c>
       <c r="J60" s="3">
-        <v>4549500</v>
+        <v>4642700</v>
       </c>
       <c r="K60" s="3">
         <v>3974600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5981300</v>
+        <v>6103800</v>
       </c>
       <c r="E61" s="3">
-        <v>6227400</v>
+        <v>6355000</v>
       </c>
       <c r="F61" s="3">
-        <v>4932600</v>
+        <v>5033700</v>
       </c>
       <c r="G61" s="3">
-        <v>5066200</v>
+        <v>5170000</v>
       </c>
       <c r="H61" s="3">
-        <v>5867800</v>
+        <v>5988100</v>
       </c>
       <c r="I61" s="3">
-        <v>6720000</v>
+        <v>6857700</v>
       </c>
       <c r="J61" s="3">
-        <v>6948200</v>
+        <v>7090600</v>
       </c>
       <c r="K61" s="3">
         <v>7353900</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1491800</v>
+        <v>1522400</v>
       </c>
       <c r="E62" s="3">
-        <v>1610100</v>
+        <v>1643100</v>
       </c>
       <c r="F62" s="3">
-        <v>1312400</v>
+        <v>1339300</v>
       </c>
       <c r="G62" s="3">
-        <v>1139000</v>
+        <v>1162400</v>
       </c>
       <c r="H62" s="3">
-        <v>1143100</v>
+        <v>1166500</v>
       </c>
       <c r="I62" s="3">
-        <v>1222500</v>
+        <v>1247600</v>
       </c>
       <c r="J62" s="3">
-        <v>1121300</v>
+        <v>1144200</v>
       </c>
       <c r="K62" s="3">
         <v>1338400</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2171,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2200,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2229,36 +2264,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19474000</v>
+        <v>19873000</v>
       </c>
       <c r="E66" s="3">
-        <v>19957600</v>
+        <v>20366600</v>
       </c>
       <c r="F66" s="3">
-        <v>15646000</v>
+        <v>15966600</v>
       </c>
       <c r="G66" s="3">
-        <v>15074000</v>
+        <v>15382900</v>
       </c>
       <c r="H66" s="3">
-        <v>14466700</v>
+        <v>14763200</v>
       </c>
       <c r="I66" s="3">
-        <v>14336800</v>
+        <v>14630600</v>
       </c>
       <c r="J66" s="3">
-        <v>12955700</v>
+        <v>13221200</v>
       </c>
       <c r="K66" s="3">
         <v>13088100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2271,7 +2306,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2300,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2329,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2358,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2387,36 +2422,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7050500</v>
+        <v>7195000</v>
       </c>
       <c r="E72" s="3">
-        <v>6690300</v>
+        <v>6827400</v>
       </c>
       <c r="F72" s="3">
-        <v>6047900</v>
+        <v>6171900</v>
       </c>
       <c r="G72" s="3">
-        <v>5631700</v>
+        <v>5747100</v>
       </c>
       <c r="H72" s="3">
-        <v>5443800</v>
+        <v>5555400</v>
       </c>
       <c r="I72" s="3">
-        <v>5396200</v>
+        <v>5506800</v>
       </c>
       <c r="J72" s="3">
-        <v>5367800</v>
+        <v>5477800</v>
       </c>
       <c r="K72" s="3">
         <v>5389400</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2445,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2474,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2503,36 +2538,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9071100</v>
+        <v>9257000</v>
       </c>
       <c r="E76" s="3">
-        <v>8737600</v>
+        <v>8916600</v>
       </c>
       <c r="F76" s="3">
-        <v>7594400</v>
+        <v>7750000</v>
       </c>
       <c r="G76" s="3">
-        <v>6370400</v>
+        <v>6500900</v>
       </c>
       <c r="H76" s="3">
-        <v>6242000</v>
+        <v>6369900</v>
       </c>
       <c r="I76" s="3">
-        <v>6382900</v>
+        <v>6513600</v>
       </c>
       <c r="J76" s="3">
-        <v>6589200</v>
+        <v>6724200</v>
       </c>
       <c r="K76" s="3">
         <v>6268400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2561,12 +2596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2595,36 +2630,36 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>672300</v>
+        <v>686100</v>
       </c>
       <c r="E81" s="3">
-        <v>568800</v>
+        <v>580500</v>
       </c>
       <c r="F81" s="3">
-        <v>501900</v>
+        <v>512200</v>
       </c>
       <c r="G81" s="3">
-        <v>185300</v>
+        <v>189100</v>
       </c>
       <c r="H81" s="3">
-        <v>54600</v>
+        <v>55700</v>
       </c>
       <c r="I81" s="3">
-        <v>31300</v>
+        <v>31900</v>
       </c>
       <c r="J81" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="K81" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2637,7 +2672,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2666,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2695,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2724,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2753,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2782,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2811,36 +2846,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1155000</v>
+        <v>1178600</v>
       </c>
       <c r="E89" s="3">
-        <v>1383100</v>
+        <v>1411400</v>
       </c>
       <c r="F89" s="3">
-        <v>385400</v>
+        <v>393300</v>
       </c>
       <c r="G89" s="3">
-        <v>1643100</v>
+        <v>1676700</v>
       </c>
       <c r="H89" s="3">
-        <v>-11300</v>
+        <v>-11500</v>
       </c>
       <c r="I89" s="3">
-        <v>592200</v>
+        <v>604300</v>
       </c>
       <c r="J89" s="3">
-        <v>-297000</v>
+        <v>-303100</v>
       </c>
       <c r="K89" s="3">
         <v>547100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2853,36 +2888,36 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-408100</v>
+        <v>-70400</v>
       </c>
       <c r="E91" s="3">
-        <v>-856100</v>
+        <v>141800</v>
       </c>
       <c r="F91" s="3">
-        <v>-305600</v>
+        <v>-276300</v>
       </c>
       <c r="G91" s="3">
-        <v>79700</v>
+        <v>115500</v>
       </c>
       <c r="H91" s="3">
-        <v>-359600</v>
+        <v>-365300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1479000</v>
+        <v>-1506700</v>
       </c>
       <c r="J91" s="3">
-        <v>-333700</v>
+        <v>-320200</v>
       </c>
       <c r="K91" s="3">
         <v>-620900</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2911,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2940,36 +2975,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-172400</v>
+        <v>-175900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3473100</v>
+        <v>-3544200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1012200</v>
+        <v>-1032900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1439600</v>
+        <v>-1469100</v>
       </c>
       <c r="H94" s="3">
-        <v>-735400</v>
+        <v>-750400</v>
       </c>
       <c r="I94" s="3">
-        <v>-645500</v>
+        <v>-658800</v>
       </c>
       <c r="J94" s="3">
-        <v>-547500</v>
+        <v>-558700</v>
       </c>
       <c r="K94" s="3">
         <v>-427100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2982,36 +3017,36 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-349000</v>
+        <v>-356100</v>
       </c>
       <c r="E96" s="3">
-        <v>-43600</v>
+        <v>-44500</v>
       </c>
       <c r="F96" s="3">
-        <v>-36500</v>
+        <v>-37200</v>
       </c>
       <c r="G96" s="3">
         <v>600</v>
       </c>
       <c r="H96" s="3">
-        <v>-7800</v>
+        <v>-7900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-14300</v>
+        <v>-14600</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3040,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3069,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3098,56 +3133,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-610800</v>
+        <v>-623400</v>
       </c>
       <c r="E100" s="3">
-        <v>2795400</v>
+        <v>2852700</v>
       </c>
       <c r="F100" s="3">
-        <v>633800</v>
+        <v>646800</v>
       </c>
       <c r="G100" s="3">
-        <v>26900</v>
+        <v>27500</v>
       </c>
       <c r="H100" s="3">
-        <v>-21300</v>
+        <v>-21700</v>
       </c>
       <c r="I100" s="3">
-        <v>755500</v>
+        <v>771000</v>
       </c>
       <c r="J100" s="3">
-        <v>855000</v>
+        <v>872500</v>
       </c>
       <c r="K100" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="E101" s="3">
-        <v>-78100</v>
+        <v>-79700</v>
       </c>
       <c r="F101" s="3">
-        <v>42000</v>
+        <v>42800</v>
       </c>
       <c r="G101" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="H101" s="3">
         <v>-4200</v>
       </c>
       <c r="I101" s="3">
-        <v>36400</v>
+        <v>37200</v>
       </c>
       <c r="J101" s="3">
         <v>-2500</v>
@@ -3156,30 +3191,30 @@
         <v>-62900</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>388900</v>
+        <v>396800</v>
       </c>
       <c r="E102" s="3">
-        <v>627300</v>
+        <v>640200</v>
       </c>
       <c r="F102" s="3">
-        <v>49000</v>
+        <v>50000</v>
       </c>
       <c r="G102" s="3">
-        <v>226400</v>
+        <v>231000</v>
       </c>
       <c r="H102" s="3">
-        <v>-772100</v>
+        <v>-787900</v>
       </c>
       <c r="I102" s="3">
-        <v>738500</v>
+        <v>753700</v>
       </c>
       <c r="J102" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="K102" s="3">
         <v>194200</v>

--- a/Financials/Quarterly/YZCAY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/YZCAY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A44CCB7-E12E-4F98-9E22-65C6D45903CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="YZCAY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>YZCAY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,155 +654,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4781800</v>
+        <v>4768900</v>
       </c>
       <c r="E8" s="3">
-        <v>4415100</v>
+        <v>5054400</v>
       </c>
       <c r="F8" s="3">
-        <v>3401900</v>
+        <v>4622900</v>
       </c>
       <c r="G8" s="3">
-        <v>3070900</v>
+        <v>4268500</v>
       </c>
       <c r="H8" s="3">
-        <v>1867100</v>
+        <v>3288900</v>
       </c>
       <c r="I8" s="3">
+        <v>2968800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1805100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2710000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2692800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4281100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2948700</v>
+        <v>3056300</v>
       </c>
       <c r="E9" s="3">
-        <v>2808700</v>
+        <v>3339100</v>
       </c>
       <c r="F9" s="3">
-        <v>2201100</v>
+        <v>2850700</v>
       </c>
       <c r="G9" s="3">
-        <v>2101400</v>
+        <v>2715400</v>
       </c>
       <c r="H9" s="3">
-        <v>1432000</v>
+        <v>2128000</v>
       </c>
       <c r="I9" s="3">
+        <v>2031600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1384400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2274900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2214500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3823800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1833100</v>
+        <v>1712600</v>
       </c>
       <c r="E10" s="3">
-        <v>1606400</v>
+        <v>1715300</v>
       </c>
       <c r="F10" s="3">
-        <v>1200800</v>
+        <v>1772200</v>
       </c>
       <c r="G10" s="3">
-        <v>969400</v>
+        <v>1553000</v>
       </c>
       <c r="H10" s="3">
+        <v>1160900</v>
+      </c>
+      <c r="I10" s="3">
+        <v>937200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>420700</v>
+      </c>
+      <c r="K10" s="3">
         <v>435100</v>
       </c>
-      <c r="I10" s="3">
-        <v>435100</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>478200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>457300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +840,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,8 +871,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,8 +906,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -933,11 +938,17 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>-106400</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,23 +961,29 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1900</v>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K15" s="3">
         <v>2100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1700</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -975,66 +992,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3734200</v>
+        <v>3575200</v>
       </c>
       <c r="E17" s="3">
-        <v>3703100</v>
+        <v>4109100</v>
       </c>
       <c r="F17" s="3">
-        <v>2680900</v>
+        <v>3610100</v>
       </c>
       <c r="G17" s="3">
-        <v>2799700</v>
+        <v>3580100</v>
       </c>
       <c r="H17" s="3">
-        <v>1889600</v>
+        <v>2591800</v>
       </c>
       <c r="I17" s="3">
+        <v>2706700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1826900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2698200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2636700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4081100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1047600</v>
+        <v>1193700</v>
       </c>
       <c r="E18" s="3">
-        <v>712000</v>
+        <v>945300</v>
       </c>
       <c r="F18" s="3">
-        <v>721100</v>
+        <v>1012800</v>
       </c>
       <c r="G18" s="3">
-        <v>271200</v>
+        <v>688400</v>
       </c>
       <c r="H18" s="3">
-        <v>-22500</v>
+        <v>697100</v>
       </c>
       <c r="I18" s="3">
+        <v>262200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="K18" s="3">
         <v>11800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>56000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>199900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1046,153 +1077,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>474700</v>
+        <v>344000</v>
       </c>
       <c r="E20" s="3">
-        <v>499200</v>
+        <v>387100</v>
       </c>
       <c r="F20" s="3">
-        <v>224700</v>
+        <v>458900</v>
       </c>
       <c r="G20" s="3">
-        <v>268200</v>
+        <v>482600</v>
       </c>
       <c r="H20" s="3">
-        <v>254400</v>
+        <v>217200</v>
       </c>
       <c r="I20" s="3">
+        <v>259300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>245900</v>
+      </c>
+      <c r="K20" s="3">
         <v>190100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>203200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>138300</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1997200</v>
+        <v>2000400</v>
       </c>
       <c r="E21" s="3">
-        <v>1224500</v>
+        <v>1321300</v>
       </c>
       <c r="F21" s="3">
-        <v>1284300</v>
+        <v>1930900</v>
       </c>
       <c r="G21" s="3">
-        <v>561800</v>
+        <v>1183900</v>
       </c>
       <c r="H21" s="3">
-        <v>529800</v>
+        <v>1241700</v>
       </c>
       <c r="I21" s="3">
+        <v>543100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>512200</v>
+      </c>
+      <c r="K21" s="3">
         <v>232900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>574800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>314000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>269400</v>
+        <v>224100</v>
       </c>
       <c r="E22" s="3">
-        <v>286800</v>
+        <v>257800</v>
       </c>
       <c r="F22" s="3">
+        <v>260500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>277300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>189800</v>
+      </c>
+      <c r="I22" s="3">
         <v>196300</v>
       </c>
-      <c r="G22" s="3">
-        <v>203100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>168100</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>162500</v>
+      </c>
+      <c r="K22" s="3">
         <v>145700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>223000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>154600</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1252800</v>
+        <v>1313600</v>
       </c>
       <c r="E23" s="3">
-        <v>924400</v>
+        <v>1074600</v>
       </c>
       <c r="F23" s="3">
-        <v>749400</v>
+        <v>1211200</v>
       </c>
       <c r="G23" s="3">
-        <v>336300</v>
+        <v>893700</v>
       </c>
       <c r="H23" s="3">
-        <v>63700</v>
+        <v>724500</v>
       </c>
       <c r="I23" s="3">
+        <v>325100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>61600</v>
+      </c>
+      <c r="K23" s="3">
         <v>56100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>36200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>370100</v>
+        <v>238600</v>
       </c>
       <c r="E24" s="3">
-        <v>235100</v>
+        <v>303400</v>
       </c>
       <c r="F24" s="3">
-        <v>167800</v>
+        <v>357900</v>
       </c>
       <c r="G24" s="3">
-        <v>110500</v>
+        <v>227300</v>
       </c>
       <c r="H24" s="3">
-        <v>10800</v>
+        <v>162200</v>
       </c>
       <c r="I24" s="3">
+        <v>106800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K24" s="3">
         <v>36700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>36000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>166700</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1220,66 +1283,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>882700</v>
+        <v>1075000</v>
       </c>
       <c r="E26" s="3">
-        <v>689300</v>
+        <v>771200</v>
       </c>
       <c r="F26" s="3">
-        <v>581600</v>
+        <v>853400</v>
       </c>
       <c r="G26" s="3">
-        <v>225800</v>
+        <v>666400</v>
       </c>
       <c r="H26" s="3">
-        <v>52900</v>
+        <v>562300</v>
       </c>
       <c r="I26" s="3">
+        <v>218300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K26" s="3">
         <v>19500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>686100</v>
+        <v>833600</v>
       </c>
       <c r="E27" s="3">
-        <v>580500</v>
+        <v>568200</v>
       </c>
       <c r="F27" s="3">
-        <v>512200</v>
+        <v>663300</v>
       </c>
       <c r="G27" s="3">
-        <v>189100</v>
+        <v>561200</v>
       </c>
       <c r="H27" s="3">
-        <v>55700</v>
+        <v>495200</v>
       </c>
       <c r="I27" s="3">
+        <v>182800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K27" s="3">
         <v>31900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-7500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1307,8 +1388,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1336,8 +1423,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1365,8 +1458,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1394,66 +1493,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-474700</v>
+        <v>-344000</v>
       </c>
       <c r="E32" s="3">
-        <v>-499200</v>
+        <v>-387100</v>
       </c>
       <c r="F32" s="3">
-        <v>-224700</v>
+        <v>-458900</v>
       </c>
       <c r="G32" s="3">
-        <v>-268200</v>
+        <v>-482600</v>
       </c>
       <c r="H32" s="3">
-        <v>-254400</v>
+        <v>-217200</v>
       </c>
       <c r="I32" s="3">
+        <v>-259300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-245900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-190100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-203200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-138300</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>686100</v>
+        <v>833600</v>
       </c>
       <c r="E33" s="3">
-        <v>580500</v>
+        <v>568200</v>
       </c>
       <c r="F33" s="3">
-        <v>512200</v>
+        <v>663300</v>
       </c>
       <c r="G33" s="3">
-        <v>189100</v>
+        <v>561200</v>
       </c>
       <c r="H33" s="3">
-        <v>55700</v>
+        <v>495200</v>
       </c>
       <c r="I33" s="3">
+        <v>182800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K33" s="3">
         <v>31900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-7500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1481,71 +1598,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>686100</v>
+        <v>833600</v>
       </c>
       <c r="E35" s="3">
-        <v>580500</v>
+        <v>568200</v>
       </c>
       <c r="F35" s="3">
-        <v>512200</v>
+        <v>663300</v>
       </c>
       <c r="G35" s="3">
-        <v>189100</v>
+        <v>561200</v>
       </c>
       <c r="H35" s="3">
-        <v>55700</v>
+        <v>495200</v>
       </c>
       <c r="I35" s="3">
+        <v>182800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K35" s="3">
         <v>31900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-7500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1557,8 +1692,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1570,57 +1707,65 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3524300</v>
+        <v>3268100</v>
       </c>
       <c r="E41" s="3">
-        <v>3127500</v>
+        <v>3927500</v>
       </c>
       <c r="F41" s="3">
-        <v>2487300</v>
+        <v>3407200</v>
       </c>
       <c r="G41" s="3">
-        <v>2437300</v>
+        <v>3023600</v>
       </c>
       <c r="H41" s="3">
-        <v>2206300</v>
+        <v>2404700</v>
       </c>
       <c r="I41" s="3">
+        <v>2356300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2133000</v>
+      </c>
+      <c r="K41" s="3">
         <v>2994200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2240500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2187500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>10300</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>20200</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>19400</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+        <v>10000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>19500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>18700</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1628,211 +1773,259 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2972000</v>
+        <v>2656200</v>
       </c>
       <c r="E43" s="3">
-        <v>3122800</v>
+        <v>2485100</v>
       </c>
       <c r="F43" s="3">
-        <v>1925700</v>
+        <v>2873300</v>
       </c>
       <c r="G43" s="3">
-        <v>1761500</v>
+        <v>3019000</v>
       </c>
       <c r="H43" s="3">
-        <v>1353100</v>
+        <v>1861700</v>
       </c>
       <c r="I43" s="3">
+        <v>1703000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1308200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1179600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1245100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1294600</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1283000</v>
+        <v>2077000</v>
       </c>
       <c r="E44" s="3">
-        <v>891600</v>
+        <v>1045400</v>
       </c>
       <c r="F44" s="3">
-        <v>896000</v>
+        <v>1240400</v>
       </c>
       <c r="G44" s="3">
-        <v>750800</v>
+        <v>862000</v>
       </c>
       <c r="H44" s="3">
-        <v>919400</v>
+        <v>866300</v>
       </c>
       <c r="I44" s="3">
+        <v>725800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>888900</v>
+      </c>
+      <c r="K44" s="3">
         <v>676700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>737200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1655300</v>
+        <v>1838100</v>
       </c>
       <c r="E45" s="3">
-        <v>2531400</v>
+        <v>1843900</v>
       </c>
       <c r="F45" s="3">
-        <v>2115400</v>
+        <v>1600300</v>
       </c>
       <c r="G45" s="3">
-        <v>1191800</v>
+        <v>2447300</v>
       </c>
       <c r="H45" s="3">
-        <v>1011900</v>
+        <v>2045100</v>
       </c>
       <c r="I45" s="3">
+        <v>1152200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>978300</v>
+      </c>
+      <c r="K45" s="3">
         <v>2393600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1756400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1550700</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9434700</v>
+        <v>9839400</v>
       </c>
       <c r="E46" s="3">
-        <v>9683500</v>
+        <v>9301900</v>
       </c>
       <c r="F46" s="3">
-        <v>7444600</v>
+        <v>9121300</v>
       </c>
       <c r="G46" s="3">
-        <v>6160700</v>
+        <v>9361900</v>
       </c>
       <c r="H46" s="3">
-        <v>5490800</v>
+        <v>7197300</v>
       </c>
       <c r="I46" s="3">
+        <v>5956100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5308400</v>
+      </c>
+      <c r="K46" s="3">
         <v>7244100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5979300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5538900</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3191000</v>
+        <v>3757200</v>
       </c>
       <c r="E47" s="3">
-        <v>2826000</v>
+        <v>3790100</v>
       </c>
       <c r="F47" s="3">
-        <v>2111700</v>
+        <v>3085000</v>
       </c>
       <c r="G47" s="3">
-        <v>2006500</v>
+        <v>2732100</v>
       </c>
       <c r="H47" s="3">
-        <v>2264200</v>
+        <v>2041500</v>
       </c>
       <c r="I47" s="3">
+        <v>1939900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="K47" s="3">
         <v>817300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>918700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>699000</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7747800</v>
+        <v>8377400</v>
       </c>
       <c r="E48" s="3">
-        <v>7671300</v>
+        <v>8238200</v>
       </c>
       <c r="F48" s="3">
-        <v>6422200</v>
+        <v>7490400</v>
       </c>
       <c r="G48" s="3">
-        <v>6226200</v>
+        <v>7416400</v>
       </c>
       <c r="H48" s="3">
-        <v>6986400</v>
+        <v>6208900</v>
       </c>
       <c r="I48" s="3">
+        <v>6019400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6754300</v>
+      </c>
+      <c r="K48" s="3">
         <v>6769900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6541800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6424300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7515500</v>
+        <v>7110700</v>
       </c>
       <c r="E49" s="3">
-        <v>7700400</v>
+        <v>7105200</v>
       </c>
       <c r="F49" s="3">
-        <v>6311100</v>
+        <v>7265800</v>
       </c>
       <c r="G49" s="3">
-        <v>6270800</v>
+        <v>7444600</v>
       </c>
       <c r="H49" s="3">
-        <v>5195600</v>
+        <v>6101400</v>
       </c>
       <c r="I49" s="3">
+        <v>6062500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5023000</v>
+      </c>
+      <c r="K49" s="3">
         <v>5126000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5637000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5747400</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,8 +2053,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,37 +2088,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1241000</v>
+        <v>285000</v>
       </c>
       <c r="E52" s="3">
-        <v>1401900</v>
+        <v>1122000</v>
       </c>
       <c r="F52" s="3">
-        <v>1427100</v>
+        <v>1199800</v>
       </c>
       <c r="G52" s="3">
-        <v>1219500</v>
+        <v>1355400</v>
       </c>
       <c r="H52" s="3">
-        <v>1196100</v>
+        <v>1379700</v>
       </c>
       <c r="I52" s="3">
+        <v>1179000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1156400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1187000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>868600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>946800</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1947,37 +2158,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29130000</v>
+        <v>29369800</v>
       </c>
       <c r="E54" s="3">
-        <v>29283200</v>
+        <v>29557400</v>
       </c>
       <c r="F54" s="3">
-        <v>23716700</v>
+        <v>28162300</v>
       </c>
       <c r="G54" s="3">
-        <v>21883900</v>
+        <v>28310400</v>
       </c>
       <c r="H54" s="3">
-        <v>21133000</v>
+        <v>22928800</v>
       </c>
       <c r="I54" s="3">
+        <v>21156900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>20431000</v>
+      </c>
+      <c r="K54" s="3">
         <v>21144300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>19945400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>19356500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1989,8 +2212,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2002,182 +2227,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4548100</v>
+        <v>2375100</v>
       </c>
       <c r="E57" s="3">
-        <v>4642700</v>
+        <v>1928900</v>
       </c>
       <c r="F57" s="3">
-        <v>2822300</v>
+        <v>1354900</v>
       </c>
       <c r="G57" s="3">
-        <v>2483300</v>
+        <v>1386900</v>
       </c>
       <c r="H57" s="3">
-        <v>1900800</v>
+        <v>982500</v>
       </c>
       <c r="I57" s="3">
+        <v>884600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>705000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1989700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1663700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>614800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3962500</v>
+        <v>2249300</v>
       </c>
       <c r="E58" s="3">
-        <v>4118600</v>
+        <v>2879600</v>
       </c>
       <c r="F58" s="3">
-        <v>4768000</v>
+        <v>3830900</v>
       </c>
       <c r="G58" s="3">
-        <v>4562400</v>
+        <v>3981800</v>
       </c>
       <c r="H58" s="3">
-        <v>4339200</v>
+        <v>4609600</v>
       </c>
       <c r="I58" s="3">
+        <v>4410900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4195000</v>
+      </c>
+      <c r="K58" s="3">
         <v>3547500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2487300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1581100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>839700</v>
+        <v>4843000</v>
       </c>
       <c r="E59" s="3">
-        <v>696200</v>
+        <v>3742900</v>
       </c>
       <c r="F59" s="3">
-        <v>466800</v>
+        <v>3853900</v>
       </c>
       <c r="G59" s="3">
-        <v>580100</v>
+        <v>3774600</v>
       </c>
       <c r="H59" s="3">
-        <v>504800</v>
+        <v>2197300</v>
       </c>
       <c r="I59" s="3">
+        <v>2077100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1620700</v>
+      </c>
+      <c r="K59" s="3">
         <v>704400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>491800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1778700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9350400</v>
+        <v>9467400</v>
       </c>
       <c r="E60" s="3">
-        <v>9457500</v>
+        <v>8551500</v>
       </c>
       <c r="F60" s="3">
-        <v>8057100</v>
+        <v>9039800</v>
       </c>
       <c r="G60" s="3">
-        <v>7625900</v>
+        <v>9143300</v>
       </c>
       <c r="H60" s="3">
-        <v>6744800</v>
+        <v>7789400</v>
       </c>
       <c r="I60" s="3">
+        <v>7372600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6520700</v>
+      </c>
+      <c r="K60" s="3">
         <v>6241600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4642700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3974600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6103800</v>
+        <v>6557700</v>
       </c>
       <c r="E61" s="3">
-        <v>6355000</v>
+        <v>6974300</v>
       </c>
       <c r="F61" s="3">
-        <v>5033700</v>
+        <v>5870000</v>
       </c>
       <c r="G61" s="3">
-        <v>5170000</v>
+        <v>6113600</v>
       </c>
       <c r="H61" s="3">
-        <v>5988100</v>
+        <v>4866500</v>
       </c>
       <c r="I61" s="3">
+        <v>4998200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>5789100</v>
+      </c>
+      <c r="K61" s="3">
         <v>6857700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>7090600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>7353900</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1522400</v>
+        <v>877300</v>
       </c>
       <c r="E62" s="3">
-        <v>1643100</v>
+        <v>1542400</v>
       </c>
       <c r="F62" s="3">
-        <v>1339300</v>
+        <v>1502900</v>
       </c>
       <c r="G62" s="3">
-        <v>1162400</v>
+        <v>1618800</v>
       </c>
       <c r="H62" s="3">
-        <v>1166500</v>
+        <v>1294800</v>
       </c>
       <c r="I62" s="3">
+        <v>1123800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1127800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1247600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1144200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1338400</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2205,8 +2468,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2234,8 +2503,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2263,37 +2538,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19873000</v>
+        <v>19434500</v>
       </c>
       <c r="E66" s="3">
-        <v>20366600</v>
+        <v>20114800</v>
       </c>
       <c r="F66" s="3">
-        <v>15966600</v>
+        <v>19212900</v>
       </c>
       <c r="G66" s="3">
-        <v>15382900</v>
+        <v>19690000</v>
       </c>
       <c r="H66" s="3">
-        <v>14763200</v>
+        <v>15436200</v>
       </c>
       <c r="I66" s="3">
+        <v>14871900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>14272700</v>
+      </c>
+      <c r="K66" s="3">
         <v>14630600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>13221200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>13088100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2305,8 +2592,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2334,8 +2623,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2363,8 +2658,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,8 +2693,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2421,37 +2728,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7195000</v>
+        <v>7953400</v>
       </c>
       <c r="E72" s="3">
-        <v>6827400</v>
+        <v>7500400</v>
       </c>
       <c r="F72" s="3">
-        <v>6171900</v>
+        <v>6956000</v>
       </c>
       <c r="G72" s="3">
-        <v>5747100</v>
+        <v>6600600</v>
       </c>
       <c r="H72" s="3">
-        <v>5555400</v>
+        <v>5966800</v>
       </c>
       <c r="I72" s="3">
+        <v>5556200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>5370800</v>
+      </c>
+      <c r="K72" s="3">
         <v>5506800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>5477800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5389400</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2479,8 +2798,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2508,8 +2833,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2537,37 +2868,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9257000</v>
+        <v>9935300</v>
       </c>
       <c r="E76" s="3">
-        <v>8916600</v>
+        <v>9442600</v>
       </c>
       <c r="F76" s="3">
-        <v>7750000</v>
+        <v>8949500</v>
       </c>
       <c r="G76" s="3">
-        <v>6500900</v>
+        <v>8620400</v>
       </c>
       <c r="H76" s="3">
-        <v>6369900</v>
+        <v>7492600</v>
       </c>
       <c r="I76" s="3">
+        <v>6285000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6158300</v>
+      </c>
+      <c r="K76" s="3">
         <v>6513600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6724200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6268400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2595,71 +2938,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>686100</v>
+        <v>833600</v>
       </c>
       <c r="E81" s="3">
-        <v>580500</v>
+        <v>568200</v>
       </c>
       <c r="F81" s="3">
-        <v>512200</v>
+        <v>663300</v>
       </c>
       <c r="G81" s="3">
-        <v>189100</v>
+        <v>561200</v>
       </c>
       <c r="H81" s="3">
-        <v>55700</v>
+        <v>495200</v>
       </c>
       <c r="I81" s="3">
+        <v>182800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K81" s="3">
         <v>31900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-7500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2671,8 +3032,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2700,8 +3063,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2729,8 +3098,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2758,8 +3133,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2787,8 +3168,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2816,8 +3203,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2845,37 +3238,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1178600</v>
+        <v>1202200</v>
       </c>
       <c r="E89" s="3">
-        <v>1411400</v>
+        <v>1478100</v>
       </c>
       <c r="F89" s="3">
-        <v>393300</v>
+        <v>1139500</v>
       </c>
       <c r="G89" s="3">
-        <v>1676700</v>
+        <v>1364500</v>
       </c>
       <c r="H89" s="3">
-        <v>-11500</v>
+        <v>380200</v>
       </c>
       <c r="I89" s="3">
+        <v>1621100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K89" s="3">
         <v>604300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-303100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>547100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2887,37 +3292,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-70400</v>
+        <v>-127700</v>
       </c>
       <c r="E91" s="3">
-        <v>141800</v>
+        <v>22200</v>
       </c>
       <c r="F91" s="3">
-        <v>-276300</v>
+        <v>-68000</v>
       </c>
       <c r="G91" s="3">
-        <v>115500</v>
+        <v>137100</v>
       </c>
       <c r="H91" s="3">
-        <v>-365300</v>
+        <v>-267100</v>
       </c>
       <c r="I91" s="3">
+        <v>111700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-353100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1506700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-320200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-620900</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2945,8 +3358,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2974,37 +3393,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-175900</v>
+        <v>-299900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3544200</v>
+        <v>-1289400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1032900</v>
+        <v>-170100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1469100</v>
+        <v>-3426500</v>
       </c>
       <c r="H94" s="3">
-        <v>-750400</v>
+        <v>-998600</v>
       </c>
       <c r="I94" s="3">
+        <v>-1420300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-725500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-658800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-558700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-427100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3016,37 +3447,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-356100</v>
+        <v>-83700</v>
       </c>
       <c r="E96" s="3">
-        <v>-44500</v>
+        <v>6300</v>
       </c>
       <c r="F96" s="3">
-        <v>-37200</v>
+        <v>-344300</v>
       </c>
       <c r="G96" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="I96" s="3">
         <v>600</v>
       </c>
-      <c r="H96" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-14600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3074,8 +3513,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3103,8 +3548,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3132,91 +3583,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-623400</v>
+        <v>-1562400</v>
       </c>
       <c r="E100" s="3">
-        <v>2852700</v>
+        <v>331300</v>
       </c>
       <c r="F100" s="3">
-        <v>646800</v>
+        <v>-602600</v>
       </c>
       <c r="G100" s="3">
-        <v>27500</v>
+        <v>2757900</v>
       </c>
       <c r="H100" s="3">
-        <v>-21700</v>
+        <v>625300</v>
       </c>
       <c r="I100" s="3">
+        <v>26600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="K100" s="3">
         <v>771000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>872500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>17400</v>
+        <v>700</v>
       </c>
       <c r="E101" s="3">
-        <v>-79700</v>
+        <v>300</v>
       </c>
       <c r="F101" s="3">
-        <v>42800</v>
+        <v>16900</v>
       </c>
       <c r="G101" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>41400</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J101" s="3">
         <v>-4100</v>
       </c>
-      <c r="H101" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>37200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-62900</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>396800</v>
+        <v>-659400</v>
       </c>
       <c r="E102" s="3">
-        <v>640200</v>
+        <v>520200</v>
       </c>
       <c r="F102" s="3">
-        <v>50000</v>
+        <v>383700</v>
       </c>
       <c r="G102" s="3">
-        <v>231000</v>
+        <v>618900</v>
       </c>
       <c r="H102" s="3">
-        <v>-787900</v>
+        <v>48300</v>
       </c>
       <c r="I102" s="3">
+        <v>223300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-761700</v>
+      </c>
+      <c r="K102" s="3">
         <v>753700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>8100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>194200</v>
       </c>
     </row>
